--- a/poster/graphs.xlsx
+++ b/poster/graphs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>naive</t>
   </si>
@@ -121,7 +121,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>naive</c:v>
+                  <c:v>merkle</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -245,7 +245,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>merkle</c:v>
+                  <c:v>naive</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -370,11 +370,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56928256"/>
-        <c:axId val="45500096"/>
+        <c:axId val="58074624"/>
+        <c:axId val="57894592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56928256"/>
+        <c:axId val="58074624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +402,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45500096"/>
+        <c:crossAx val="57894592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -410,7 +410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45500096"/>
+        <c:axId val="57894592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -440,7 +440,300 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56928256"/>
+        <c:crossAx val="58074624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Network Usage vs. Conflict Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>merkle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.01</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.96</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>naive</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.96</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.73</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>23.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="58076672"/>
+        <c:axId val="57896320"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="58076672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Conflict Count (Data Count = 16)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57896320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57896320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Network Usage (Data Objects + Hashes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58076672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -480,6 +773,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -786,18 +1114,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1064,13 +1390,151 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="B3">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>14.43</v>
+      </c>
+      <c r="B4">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="B5">
+        <v>17.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21.87</v>
+      </c>
+      <c r="B6">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>24.62</v>
+      </c>
+      <c r="B7">
+        <v>18.440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>27.41</v>
+      </c>
+      <c r="B8">
+        <v>19.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>29.24</v>
+      </c>
+      <c r="B9">
+        <v>19.48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>31.01</v>
+      </c>
+      <c r="B10">
+        <v>20.190000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>32.46</v>
+      </c>
+      <c r="B11">
+        <v>20.46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>33.72</v>
+      </c>
+      <c r="B12">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>34.72</v>
+      </c>
+      <c r="B13">
+        <v>21.04</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>36.15</v>
+      </c>
+      <c r="B14">
+        <v>21.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>37.31</v>
+      </c>
+      <c r="B15">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>37.96</v>
+      </c>
+      <c r="B16">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>38.29</v>
+      </c>
+      <c r="B17">
+        <v>23.29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
